--- a/medicine/Autisme/Sally_J._Rogers/Sally_J._Rogers.xlsx
+++ b/medicine/Autisme/Sally_J._Rogers/Sally_J._Rogers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sally J. Rogers est une chercheuse américaine en psychologie du développement et de l'enfant , spécialisée dans l'autisme. En 2016, elle est professeure au département de psychiatrie et de sciences du comportement à l'Université de Californie à Davis[1].
-Elle développe à partir de 1989 le programme développemental de Denver[2],[3], qui sera ensuite validé empiriquement et popularisé en collaboration avec Geraldine Dawson[4]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sally J. Rogers est une chercheuse américaine en psychologie du développement et de l'enfant , spécialisée dans l'autisme. En 2016, elle est professeure au département de psychiatrie et de sciences du comportement à l'Université de Californie à Davis.
+Elle développe à partir de 1989 le programme développemental de Denver qui sera ensuite validé empiriquement et popularisé en collaboration avec Geraldine Dawson. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ouvrages traduit en français :
 Sally J. Rogers et Geraldine Dawson (trad. de l'anglais par Bernadette Rogé), L'intervention précoce en autisme : le modèle de Denver pour jeunes enfants : Évaluation et prise en charge [« Early Start Denver Model for Young Children With Autism: Promoting Language, Learning and Engagement »], Paris, Dunod, coll. « Les Ateliers du praticien », 2 octobre 2013, 432 p. (ISBN 978-2-10-057653-1)
